--- a/biology/Botanique/Broom_park/Broom_park.xlsx
+++ b/biology/Botanique/Broom_park/Broom_park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ’Broom park est une variété de poire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ’Broom park est une variété de poire.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brom-Park
 Groom-Park
-Brum-Park[2].</t>
+Brum-Park.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est obtenue et décrite vers 1835, par Thomas Andrew Knight, arboriculteur, président de la société d'horticulture de Londres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est obtenue et décrite vers 1835, par Thomas Andrew Knight, arboriculteur, président de la société d'horticulture de Londres.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bois fort aux rameaux peu nombreux mais d'une fertilité extrême[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois fort aux rameaux peu nombreux mais d'une fertilité extrême,.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chair presque fondante, demi-fine, juteuse, très sucrée, vineuse et bien parfumée.
-Maturité de fin-décembre à février[4].
+Maturité de fin-décembre à février.
 </t>
         </is>
       </c>
